--- a/Arbeitsaufteilung.xlsx
+++ b/Arbeitsaufteilung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9320" yWindow="5920" windowWidth="25600" windowHeight="10240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Aufgaben</t>
   </si>
@@ -97,6 +97,24 @@
   </si>
   <si>
     <t>Datum</t>
+  </si>
+  <si>
+    <t>Karic</t>
+  </si>
+  <si>
+    <t>Adler</t>
+  </si>
+  <si>
+    <t>60min</t>
+  </si>
+  <si>
+    <t>in Arbeit</t>
+  </si>
+  <si>
+    <t>30min</t>
+  </si>
+  <si>
+    <t>Kopec, Ernhofer</t>
   </si>
 </sst>
 </file>
@@ -168,9 +186,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -526,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -560,6 +579,9 @@
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
@@ -580,6 +602,9 @@
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" t="s">
@@ -595,6 +620,9 @@
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" t="s">
@@ -606,57 +634,81 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:6">
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="2">
+        <v>42059</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:6">
       <c r="B20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="2:2">
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="2">
+        <v>42060</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
       <c r="B21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:6">
       <c r="B22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:6">
       <c r="B23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:6">
       <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:6">
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:6">
       <c r="B29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:6">
       <c r="B30" t="s">
         <v>15</v>
       </c>

--- a/Arbeitsaufteilung.xlsx
+++ b/Arbeitsaufteilung.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adin Karic\Desktop\LDAP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Aufgaben</t>
   </si>
@@ -121,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -192,18 +197,26 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -546,16 +559,16 @@
   <dimension ref="B3:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="103.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="103.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6">
@@ -586,6 +599,12 @@
     <row r="5" spans="2:6">
       <c r="B5" t="s">
         <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>42059</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:6">

--- a/Arbeitsaufteilung.xlsx
+++ b/Arbeitsaufteilung.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adin Karic\Desktop\LDAP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Aufgaben</t>
   </si>
@@ -120,13 +115,16 @@
   </si>
   <si>
     <t>Kopec, Ernhofer</t>
+  </si>
+  <si>
+    <t>180min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -197,15 +195,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -558,17 +556,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="103.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="103.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6">
@@ -730,6 +728,15 @@
     <row r="30" spans="2:6">
       <c r="B30" t="s">
         <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="2">
+        <v>42069</v>
+      </c>
+      <c r="E30" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Arbeitsaufteilung.xlsx
+++ b/Arbeitsaufteilung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>Aufgaben</t>
   </si>
@@ -108,9 +108,6 @@
     <t>60min</t>
   </si>
   <si>
-    <t>in Arbeit</t>
-  </si>
-  <si>
     <t>30min</t>
   </si>
   <si>
@@ -118,6 +115,12 @@
   </si>
   <si>
     <t>180min</t>
+  </si>
+  <si>
+    <t>90min</t>
+  </si>
+  <si>
+    <t>Fertig</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
   <dimension ref="B3:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -620,7 +623,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -638,7 +641,7 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -673,7 +676,7 @@
         <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -692,7 +695,7 @@
         <v>42060</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -714,6 +717,18 @@
       <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="2">
+        <v>42072</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="1" t="s">
@@ -736,7 +751,10 @@
         <v>42069</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="F30" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Arbeitsaufteilung.xlsx
+++ b/Arbeitsaufteilung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Aufgaben</t>
   </si>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -739,6 +739,15 @@
       <c r="B29" t="s">
         <v>14</v>
       </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="2">
+        <v>42073</v>
+      </c>
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" t="s">
